--- a/output/fit_clients/fit_round_158.xlsx
+++ b/output/fit_clients/fit_round_158.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1522781777.369661</v>
+        <v>2390747454.38274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105204608949235</v>
+        <v>0.09572965401616683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03596523233266945</v>
+        <v>0.04319870739193137</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761390820.1250136</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1633138550.095055</v>
+        <v>2308084624.247302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1641465420001122</v>
+        <v>0.1226731137278768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03305552192213973</v>
+        <v>0.04751904615557016</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>816569258.2523711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4854194590.008908</v>
+        <v>3894921838.101163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1265138934261093</v>
+        <v>0.1205469240148428</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02344077233423125</v>
+        <v>0.02776173578810523</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>57</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2427097369.664838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4204189154.345024</v>
+        <v>3856675333.260537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.102045876799904</v>
+        <v>0.1080274689927058</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03869144557357532</v>
+        <v>0.03706612961492208</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2102094567.360622</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2118091710.249459</v>
+        <v>2031991912.861795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1001959486008103</v>
+        <v>0.1053791353843579</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03834564740047724</v>
+        <v>0.03739284321921375</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1059045871.903782</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3036035576.921271</v>
+        <v>2933891922.648114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08578597940799985</v>
+        <v>0.07364958261921208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0350559524801435</v>
+        <v>0.04143104200527856</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>47</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1518017749.898335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2669388134.947411</v>
+        <v>2995448928.469862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2123639441215625</v>
+        <v>0.2024278221299792</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02575402058997757</v>
+        <v>0.02927008293277652</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1334694091.159477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1450117097.446337</v>
+        <v>1482887486.251964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1581790064604677</v>
+        <v>0.1701847732938288</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02718754741120176</v>
+        <v>0.03404468365406581</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>725058651.5931561</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4390265313.383484</v>
+        <v>5065118422.358801</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1819753609388462</v>
+        <v>0.1799835303912766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04548628678340723</v>
+        <v>0.03659109755925977</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>67</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2195132708.741629</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2953545661.179281</v>
+        <v>4247245430.391744</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1890237296593283</v>
+        <v>0.1598224230661244</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0308939306638955</v>
+        <v>0.0491752958882323</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>65</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1476772770.236934</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2215959245.850845</v>
+        <v>2781692598.400764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1891664880337449</v>
+        <v>0.1889271756649728</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03398966724543547</v>
+        <v>0.050886552207228</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>55</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1107979569.091164</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4287201937.230847</v>
+        <v>4428737436.762274</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07903145481501218</v>
+        <v>0.07838403804873309</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02939214084004979</v>
+        <v>0.02074270955198238</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>53</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2143601008.922396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3886530163.741727</v>
+        <v>2668288388.388266</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1517146141079625</v>
+        <v>0.1352709883050844</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03223710505824072</v>
+        <v>0.0391084966198311</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1943265052.062238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1425151249.075661</v>
+        <v>1214754862.646887</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08666562284839859</v>
+        <v>0.1082673672753073</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04639208622587746</v>
+        <v>0.0375603099213419</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>712575693.0337486</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2082090911.814036</v>
+        <v>2012637101.587271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07100044425733282</v>
+        <v>0.07471248143768651</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04903722417136328</v>
+        <v>0.04229417396211232</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1041045524.029141</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4315795989.458138</v>
+        <v>5320138266.651212</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1230773880926381</v>
+        <v>0.1473950134906838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04448365409117815</v>
+        <v>0.03964447940145917</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>46</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2157898013.637161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2598889737.039444</v>
+        <v>2750622582.869385</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1463197840468655</v>
+        <v>0.1799691353539566</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03278026118114108</v>
+        <v>0.02715046954500355</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1299444927.786563</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1263542557.174755</v>
+        <v>952074195.3018137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1617430864537473</v>
+        <v>0.1455054784765218</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02602077293590484</v>
+        <v>0.02400013658544243</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>631771371.9308871</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2149570010.044777</v>
+        <v>2069385737.815804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1073335452386313</v>
+        <v>0.143137408282157</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02595840945488702</v>
+        <v>0.03143263670979512</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1074785015.408108</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2098354987.650186</v>
+        <v>2668351563.230857</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08920938056809634</v>
+        <v>0.08491207613889332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03174994166577041</v>
+        <v>0.03177004414939813</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1049177520.346867</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3801345560.266837</v>
+        <v>2823405413.595071</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08863147854669019</v>
+        <v>0.1115942020375343</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05545303531029186</v>
+        <v>0.04106244992685743</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1900672793.643153</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1293832500.268543</v>
+        <v>1352189440.866031</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1831229820955918</v>
+        <v>0.1634797840424647</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0484402179705482</v>
+        <v>0.04983736440760835</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>646916270.7759717</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3735004921.542727</v>
+        <v>2789938610.462214</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1246356884976887</v>
+        <v>0.09316827879767199</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03042751330650378</v>
+        <v>0.02552399487183661</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1867502446.553738</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1259744694.374696</v>
+        <v>1393033485.191143</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1092415255082569</v>
+        <v>0.1084721252653535</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02122175674651765</v>
+        <v>0.02243156778992475</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>629872351.3800871</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1368842454.353113</v>
+        <v>1296381663.879288</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1163134101661979</v>
+        <v>0.1152455594104007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03308003532096027</v>
+        <v>0.03001951056209702</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>684421289.5094264</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4244378851.056622</v>
+        <v>4645430615.883164</v>
       </c>
       <c r="F27" t="n">
-        <v>0.134402172365737</v>
+        <v>0.1544375168562101</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01764742298093169</v>
+        <v>0.01657065494473464</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2122189423.491026</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2602891691.018194</v>
+        <v>2803022768.07006</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1183423379428158</v>
+        <v>0.1278056783576427</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04853383617076956</v>
+        <v>0.04853523300268886</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>51</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1301445822.245125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4210307426.30098</v>
+        <v>3913853274.356511</v>
       </c>
       <c r="F29" t="n">
-        <v>0.138524483135901</v>
+        <v>0.1179532459462072</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03868940168304152</v>
+        <v>0.0366838286436186</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2105153715.36213</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1768759260.499243</v>
+        <v>2144561731.757052</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1153361502726728</v>
+        <v>0.1360432864716087</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02726851721461949</v>
+        <v>0.02801113980737436</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>884379641.3392532</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1222885881.403115</v>
+        <v>1397832749.755625</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0811668102045026</v>
+        <v>0.07071984803834919</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03888904439744253</v>
+        <v>0.03311435595844739</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>611442886.7483207</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1157129972.940613</v>
+        <v>1615200986.509644</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1179969966142375</v>
+        <v>0.1020647107709995</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03096314883120551</v>
+        <v>0.03043791923951852</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>578564983.7824156</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2283265614.31621</v>
+        <v>3122186593.887079</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1634791195566121</v>
+        <v>0.1352178009756581</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04627452756417299</v>
+        <v>0.0494479439378164</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>47</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1141632863.778804</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1076830029.739</v>
+        <v>1078534664.725847</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1178396548974721</v>
+        <v>0.1208244105840881</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02301040166528559</v>
+        <v>0.02840090836746868</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>538415040.1362122</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>943390936.3347589</v>
+        <v>1000311303.125026</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1070939375242126</v>
+        <v>0.08146302435877771</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02990391421272627</v>
+        <v>0.03945209387169469</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>471695499.126797</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2639510218.292895</v>
+        <v>2263779612.717032</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1262099148905018</v>
+        <v>0.1143898429496188</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02061130884262088</v>
+        <v>0.01918175947326593</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1319755119.924482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2205689395.069159</v>
+        <v>2493370596.086218</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08213823490510716</v>
+        <v>0.08556455757536946</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03049805715247274</v>
+        <v>0.03983784624621204</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>43</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1102844753.081342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2011593615.247609</v>
+        <v>1508958151.502056</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1134036372511481</v>
+        <v>0.1005713693881091</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03455531180371165</v>
+        <v>0.03483035717257866</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1005796784.581606</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1746646022.253162</v>
+        <v>2119236438.009837</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1602365370422237</v>
+        <v>0.1273071011212398</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02407501979044241</v>
+        <v>0.030775974424678</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>873323044.1034324</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1781537560.092822</v>
+        <v>1379186354.255368</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1065129493505114</v>
+        <v>0.1371386396811358</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05406423538229971</v>
+        <v>0.04859383413303522</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>890768675.7068286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1999235638.709051</v>
+        <v>2204747076.820287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1647548422808001</v>
+        <v>0.1146156489379625</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04138922032826697</v>
+        <v>0.03799076988612596</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>39</v>
-      </c>
-      <c r="J41" t="n">
-        <v>999617893.6174804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3309707225.833595</v>
+        <v>3465773359.615262</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1242103933124509</v>
+        <v>0.09715406047961161</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03348126042152827</v>
+        <v>0.03378491645552346</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1654853594.641654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2218970742.163532</v>
+        <v>3060788977.415433</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1654473403717348</v>
+        <v>0.1383472025881703</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0257380674856242</v>
+        <v>0.01965216871551231</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>55</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1109485447.945049</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2359243672.980485</v>
+        <v>1569151983.097311</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07253981487919667</v>
+        <v>0.09393818650741287</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03466944618381862</v>
+        <v>0.03536113189932159</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1179622014.47141</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2187894758.977902</v>
+        <v>2053414783.938332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1268154830938157</v>
+        <v>0.1413417975764744</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05359059397071033</v>
+        <v>0.04355811788468109</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1093947389.244771</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5313489705.549442</v>
+        <v>4944546633.073167</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1764002151159043</v>
+        <v>0.1356290895033621</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05807659725462434</v>
+        <v>0.04826984206084691</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>56</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2656744897.472282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4531286336.840644</v>
+        <v>4853395113.374757</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1984823434962034</v>
+        <v>0.1467148642462238</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05011816555927515</v>
+        <v>0.05863209902565301</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>42</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2265643197.619905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3878015476.533419</v>
+        <v>3216652184.946429</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09038115244772936</v>
+        <v>0.1102360258245095</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02965980367841141</v>
+        <v>0.02844526995184429</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>55</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1939007779.672286</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1433586684.885667</v>
+        <v>1425282124.659691</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1682498841866497</v>
+        <v>0.1414620404988553</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03993137646281518</v>
+        <v>0.02907856051007028</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>716793384.7602605</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3135636768.446052</v>
+        <v>2703800847.463511</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1494406527316943</v>
+        <v>0.1752882036243626</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04180207188909495</v>
+        <v>0.05127829278921053</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>54</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1567818434.371763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1176469678.440527</v>
+        <v>1176756612.511341</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1299859109119094</v>
+        <v>0.1220695183050637</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04291621702845119</v>
+        <v>0.04745849706653565</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>588234894.5582759</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4589795102.315406</v>
+        <v>3990530480.025509</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1294951461366086</v>
+        <v>0.1061497413071409</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04308166242164568</v>
+        <v>0.04113139849041204</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>65</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2294897572.88954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3406204310.834298</v>
+        <v>3786110012.038614</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1807685248483242</v>
+        <v>0.196191621686429</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02233241747896655</v>
+        <v>0.03308105590278265</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>45</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1703102159.741673</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4653663443.385612</v>
+        <v>3815676910.970337</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1198644189825921</v>
+        <v>0.1174477695987272</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03854422963277304</v>
+        <v>0.03269213907790338</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2326831837.068286</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4392496460.759864</v>
+        <v>4771900820.261485</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1681744975079006</v>
+        <v>0.1439146114770697</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03040860364900401</v>
+        <v>0.02447526559930016</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2196248222.579021</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1509136983.2245</v>
+        <v>1319075927.160367</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1602741979643001</v>
+        <v>0.1151636052360899</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05311325054203739</v>
+        <v>0.0422646476105043</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>754568532.4996794</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3632210741.55137</v>
+        <v>4140034460.573483</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1582078631521531</v>
+        <v>0.1116580933233782</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02537478327228977</v>
+        <v>0.01774332249434058</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>50</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1816105428.233792</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1573861486.622802</v>
+        <v>1472435367.511015</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1502609847516964</v>
+        <v>0.1470672545440092</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02656994611537247</v>
+        <v>0.02489970365664855</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>786930767.6681713</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4095334143.659256</v>
+        <v>3268619807.315759</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07881715078524891</v>
+        <v>0.1163011457034214</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0453130611886579</v>
+        <v>0.04319423684778671</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2047667043.155687</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3299269408.05588</v>
+        <v>2707015372.932137</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1534649413100418</v>
+        <v>0.1680399835386558</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02437003671069796</v>
+        <v>0.02592852670731115</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>49</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1649634805.734183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2883169737.415771</v>
+        <v>3189217838.732827</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1134282777384471</v>
+        <v>0.1369262662216057</v>
       </c>
       <c r="G61" t="n">
-        <v>0.024550849243758</v>
+        <v>0.02944976009623377</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1441584860.158417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1778675054.842767</v>
+        <v>1709396579.50843</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1688160401899546</v>
+        <v>0.138948944460405</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04869329870854607</v>
+        <v>0.04434197517248382</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>889337552.2166823</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5197299182.331524</v>
+        <v>5141342754.064929</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0924717842463022</v>
+        <v>0.07658828448130701</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03777653937053473</v>
+        <v>0.0402512809979523</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>45</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2598649600.073179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3508942551.435418</v>
+        <v>3416687952.557618</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1187154395231557</v>
+        <v>0.1272996874712102</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03192236259939805</v>
+        <v>0.02857119522287908</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>49</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1754471277.004933</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4448687687.018871</v>
+        <v>4023276156.986045</v>
       </c>
       <c r="F65" t="n">
-        <v>0.109595929003049</v>
+        <v>0.1431192768317295</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03075718260730001</v>
+        <v>0.0267969634066389</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>56</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2224343835.285639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4572425120.467513</v>
+        <v>3488816775.248417</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1452232654280028</v>
+        <v>0.1169456963150326</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04889433209498102</v>
+        <v>0.03533557463740065</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>46</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2286212564.425653</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2732669492.939438</v>
+        <v>2670837116.248489</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0741496232901411</v>
+        <v>0.08458587379623045</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05141710117783466</v>
+        <v>0.03266309471349508</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>51</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1366334787.3354</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4999349961.455882</v>
+        <v>4916503139.720951</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1159547672948032</v>
+        <v>0.1366854095668233</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03620469665868314</v>
+        <v>0.05036445193210704</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2499675037.036842</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1576796205.745261</v>
+        <v>2436070513.634372</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1379744974332025</v>
+        <v>0.1547063014099228</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0412635500538673</v>
+        <v>0.04360302035732229</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>788398053.0650083</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3307396235.715553</v>
+        <v>2341035053.067087</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07045120944535864</v>
+        <v>0.08678416644240555</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03520387466263147</v>
+        <v>0.04102791450473849</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>45</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1653698114.881021</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4541263142.582715</v>
+        <v>5152348875.661737</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1807345914178748</v>
+        <v>0.1476796719459447</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03120501457481024</v>
+        <v>0.02180479749085832</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>57</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2270631642.716224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1415263945.79698</v>
+        <v>1676359630.868308</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08855497534003989</v>
+        <v>0.06621494664527322</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04776866425261087</v>
+        <v>0.04982978170353634</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>707632013.4811616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3453769397.282495</v>
+        <v>2767951510.538187</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1023155238573094</v>
+        <v>0.1061398837578766</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03237106629214094</v>
+        <v>0.03872675441447078</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>60</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1726884653.043682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3081868230.056435</v>
+        <v>3102743908.663141</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1593049740061645</v>
+        <v>0.1601627920162504</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02511465919301403</v>
+        <v>0.02957647438629135</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>54</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1540934173.310662</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1818546720.581196</v>
+        <v>2140529986.239925</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1010908534097576</v>
+        <v>0.1148935563457186</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02838868277631885</v>
+        <v>0.02386176154786734</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>909273341.4508622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3228285829.662842</v>
+        <v>5064531366.342826</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1215318524701028</v>
+        <v>0.08138720213407459</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02587623133225361</v>
+        <v>0.03225444720892303</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1614142867.149363</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2100747753.157875</v>
+        <v>1776938199.320047</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1457584840538518</v>
+        <v>0.1615423853943018</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02527947326656042</v>
+        <v>0.03137033839628742</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1050373952.973914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3748242726.28756</v>
+        <v>3773968590.209826</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244365681350596</v>
+        <v>0.1036911554993865</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05124824426614958</v>
+        <v>0.03446779038673074</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>55</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1874121346.82846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1481625608.902628</v>
+        <v>1626223354.889917</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1499518162434524</v>
+        <v>0.1153180759096678</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02606969820135209</v>
+        <v>0.02720301112934663</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>740812835.3834412</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4869142249.808408</v>
+        <v>3412225179.607846</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09824486268919225</v>
+        <v>0.1016253073783615</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03409837034626765</v>
+        <v>0.0238121931439536</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>33</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2434571167.556786</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4352466753.978802</v>
+        <v>3956885606.517514</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117456676837602</v>
+        <v>0.1101403962781231</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0271944723628724</v>
+        <v>0.02648808428414433</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2176233353.267124</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4747537669.272757</v>
+        <v>5024708642.522685</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1654308836842212</v>
+        <v>0.1560362943763609</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02614342422923448</v>
+        <v>0.0177812619268867</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2373768832.649375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2058213613.768959</v>
+        <v>2199668098.416742</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1394052149998697</v>
+        <v>0.1368022816095837</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02915184613624446</v>
+        <v>0.03230716890128912</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1029106799.40733</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2074813134.123704</v>
+        <v>1927644569.059079</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1082149596262257</v>
+        <v>0.1108979586132785</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03281572707871966</v>
+        <v>0.03224534575267057</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1037406561.111005</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3105908659.477439</v>
+        <v>2992095918.994032</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1146856127881148</v>
+        <v>0.1402468060714144</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04859362113782727</v>
+        <v>0.04601552280988153</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>60</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1552954401.536501</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2560291291.906087</v>
+        <v>1757068578.980258</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1345336107213924</v>
+        <v>0.1620729330682477</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02140923005142422</v>
+        <v>0.02338755877695793</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1280145751.457399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1339472697.031508</v>
+        <v>1187586281.930869</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1497861051573084</v>
+        <v>0.1684262384110556</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03467408796865164</v>
+        <v>0.04348024421867255</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>669736439.8107294</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2827417715.600203</v>
+        <v>3356639187.819158</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1430193093300958</v>
+        <v>0.1088814320322905</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03624665965759251</v>
+        <v>0.03082540316842316</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>63</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1413708871.157768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2274352134.362528</v>
+        <v>2185338176.232666</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1304738548624033</v>
+        <v>0.1532560345287746</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02663086614494517</v>
+        <v>0.02525405694547664</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>54</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1137176158.443461</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2074662991.2303</v>
+        <v>1736795688.124887</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09708342674935136</v>
+        <v>0.1367735455704334</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04864637358133026</v>
+        <v>0.03867358213704346</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1037331579.474825</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1627504756.82962</v>
+        <v>1545283178.630362</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1899126473572642</v>
+        <v>0.1891854604275108</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06108509376307399</v>
+        <v>0.05675469652726322</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>813752400.320074</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2073387357.816328</v>
+        <v>2761741409.859664</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07832673016971524</v>
+        <v>0.0837899006987438</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04207573948030327</v>
+        <v>0.03404733584106811</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>39</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1036693630.623432</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3279574498.470905</v>
+        <v>4956354718.039204</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1264318518761713</v>
+        <v>0.1318421794739431</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04901742191683472</v>
+        <v>0.03947776126311091</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1639787296.41429</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2194019361.272675</v>
+        <v>2047363768.868045</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1023681680752678</v>
+        <v>0.1424194957373728</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03793556575971573</v>
+        <v>0.03651831777285723</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1097009704.191824</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3203069715.561701</v>
+        <v>3284806091.172167</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09014802907654221</v>
+        <v>0.09844914604344872</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05262727323854158</v>
+        <v>0.03592656234846772</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1601534842.727044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2269226520.362206</v>
+        <v>1711539854.660466</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09906982848433996</v>
+        <v>0.09822419290457642</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03799209033096793</v>
+        <v>0.04587142574143374</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1134613218.371493</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5063342025.323415</v>
+        <v>5282164467.734787</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1140955304651851</v>
+        <v>0.1631300836488142</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02821738437833199</v>
+        <v>0.01782811274072205</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2531671154.520197</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2965789241.902527</v>
+        <v>2683348543.717674</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08307233418679286</v>
+        <v>0.07877899957059921</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02697772563365775</v>
+        <v>0.02261467427474397</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>42</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1482894603.307343</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2721748186.911924</v>
+        <v>3411468889.080755</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1174759087777196</v>
+        <v>0.1256527417384742</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03403554312577675</v>
+        <v>0.02850090351322189</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1360874059.253685</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3212340855.138272</v>
+        <v>3982759767.919333</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1159308739571114</v>
+        <v>0.132376357303983</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02260357560386492</v>
+        <v>0.0205976276470569</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>49</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1606170435.333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2379696745.632926</v>
+        <v>3442841080.732922</v>
       </c>
       <c r="F101" t="n">
-        <v>0.220756551031161</v>
+        <v>0.1718202009323647</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04057375485489727</v>
+        <v>0.03701422332782783</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>65</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1189848379.867415</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_158.xlsx
+++ b/output/fit_clients/fit_round_158.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2390747454.38274</v>
+        <v>2298656816.827908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09572965401616683</v>
+        <v>0.09653641430739213</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04319870739193137</v>
+        <v>0.04412639133895625</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2308084624.247302</v>
+        <v>1598821885.844409</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1226731137278768</v>
+        <v>0.1135905083246338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04751904615557016</v>
+        <v>0.03151279610037665</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3894921838.101163</v>
+        <v>3812612267.281512</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1205469240148428</v>
+        <v>0.1523553291007481</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02776173578810523</v>
+        <v>0.02649277199078308</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3856675333.260537</v>
+        <v>3612344087.389203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1080274689927058</v>
+        <v>0.07816449724701011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03706612961492208</v>
+        <v>0.03911852373341709</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2031991912.861795</v>
+        <v>2767160938.454202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1053791353843579</v>
+        <v>0.1390288868192943</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03739284321921375</v>
+        <v>0.04912787336014897</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2933891922.648114</v>
+        <v>2421572188.000393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07364958261921208</v>
+        <v>0.0621608028004112</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04143104200527856</v>
+        <v>0.03222632247313419</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2995448928.469862</v>
+        <v>2571824125.332998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2024278221299792</v>
+        <v>0.2061355725417321</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02927008293277652</v>
+        <v>0.02932004134121058</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1482887486.251964</v>
+        <v>1827056404.738086</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1701847732938288</v>
+        <v>0.1985190035732544</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03404468365406581</v>
+        <v>0.02513891099078665</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5065118422.358801</v>
+        <v>5217320131.903244</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1799835303912766</v>
+        <v>0.1818275031077554</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03659109755925977</v>
+        <v>0.03336543658201023</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4247245430.391744</v>
+        <v>4215998003.936821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1598224230661244</v>
+        <v>0.1402684246734962</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0491752958882323</v>
+        <v>0.04559788238209495</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2781692598.400764</v>
+        <v>2497428249.053904</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1889271756649728</v>
+        <v>0.1614282668209489</v>
       </c>
       <c r="G12" t="n">
-        <v>0.050886552207228</v>
+        <v>0.03473093705581939</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4428737436.762274</v>
+        <v>3776858458.198672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07838403804873309</v>
+        <v>0.09817814638939749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02074270955198238</v>
+        <v>0.02042247400014871</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2668288388.388266</v>
+        <v>2371287817.85997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1352709883050844</v>
+        <v>0.1516775397194672</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0391084966198311</v>
+        <v>0.02799717741282041</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1214754862.646887</v>
+        <v>1516008353.125428</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1082673672753073</v>
+        <v>0.09918318681987247</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0375603099213419</v>
+        <v>0.04679020003327266</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2012637101.587271</v>
+        <v>2627885700.876002</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07471248143768651</v>
+        <v>0.1040341603533743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04229417396211232</v>
+        <v>0.04150532824552448</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5320138266.651212</v>
+        <v>4052735072.938888</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1473950134906838</v>
+        <v>0.1714201150171702</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03964447940145917</v>
+        <v>0.05147513240586954</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2750622582.869385</v>
+        <v>3149433471.798368</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1799691353539566</v>
+        <v>0.1228602614843771</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02715046954500355</v>
+        <v>0.02739119968070786</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>952074195.3018137</v>
+        <v>1104021711.595032</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1455054784765218</v>
+        <v>0.1607835734308796</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02400013658544243</v>
+        <v>0.02207628994260775</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2069385737.815804</v>
+        <v>1702695436.144767</v>
       </c>
       <c r="F20" t="n">
-        <v>0.143137408282157</v>
+        <v>0.1395502968748676</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03143263670979512</v>
+        <v>0.02137539123187185</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2668351563.230857</v>
+        <v>2486882140.62277</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08491207613889332</v>
+        <v>0.08457133179001117</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03177004414939813</v>
+        <v>0.03781728757015614</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2823405413.595071</v>
+        <v>3340575357.142159</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1115942020375343</v>
+        <v>0.1308790932603364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04106244992685743</v>
+        <v>0.04837475907959172</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1352189440.866031</v>
+        <v>1389919484.177797</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1634797840424647</v>
+        <v>0.1471196465030533</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04983736440760835</v>
+        <v>0.03681112577624837</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2789938610.462214</v>
+        <v>2644012717.943993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09316827879767199</v>
+        <v>0.1124385661931561</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02552399487183661</v>
+        <v>0.03383131361348085</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1393033485.191143</v>
+        <v>1366692458.84607</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1084721252653535</v>
+        <v>0.1138272818530187</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02243156778992475</v>
+        <v>0.0198614741857391</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1296381663.879288</v>
+        <v>1088219240.173643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1152455594104007</v>
+        <v>0.106980011629821</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03001951056209702</v>
+        <v>0.03083968429322105</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4645430615.883164</v>
+        <v>4110223885.433753</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1544375168562101</v>
+        <v>0.1037705023641957</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01657065494473464</v>
+        <v>0.01665808980190058</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2803022768.07006</v>
+        <v>3546684032.775311</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1278056783576427</v>
+        <v>0.1211677732951841</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04853523300268886</v>
+        <v>0.03284764948628936</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3913853274.356511</v>
+        <v>4760091968.493806</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1179532459462072</v>
+        <v>0.1358100304678995</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0366838286436186</v>
+        <v>0.03849955544548358</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2144561731.757052</v>
+        <v>2400718533.988531</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1360432864716087</v>
+        <v>0.1401723201867301</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02801113980737436</v>
+        <v>0.03598514143653284</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1397832749.755625</v>
+        <v>1067059158.24345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07071984803834919</v>
+        <v>0.1039902897929808</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03311435595844739</v>
+        <v>0.0525453165302238</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1615200986.509644</v>
+        <v>1172892698.150121</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1020647107709995</v>
+        <v>0.1170545710693342</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03043791923951852</v>
+        <v>0.0326720391318558</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3122186593.887079</v>
+        <v>2794572360.953134</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1352178009756581</v>
+        <v>0.1419976784910709</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0494479439378164</v>
+        <v>0.03756890067097484</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1078534664.725847</v>
+        <v>1331984277.244542</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1208244105840881</v>
+        <v>0.107210645125151</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02840090836746868</v>
+        <v>0.01878324965924548</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1000311303.125026</v>
+        <v>1133875382.554976</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08146302435877771</v>
+        <v>0.08817201173261995</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03945209387169469</v>
+        <v>0.03400841728614123</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2263779612.717032</v>
+        <v>2351038887.809023</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1143898429496188</v>
+        <v>0.1703853142458916</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01918175947326593</v>
+        <v>0.02718992251242591</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2493370596.086218</v>
+        <v>2269970590.058894</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08556455757536946</v>
+        <v>0.09380196461926321</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03983784624621204</v>
+        <v>0.03845216608119513</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1508958151.502056</v>
+        <v>1824473042.630548</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1005713693881091</v>
+        <v>0.1001097897693914</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03483035717257866</v>
+        <v>0.02791794926489447</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2119236438.009837</v>
+        <v>1993442497.990912</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1273071011212398</v>
+        <v>0.1759996714024869</v>
       </c>
       <c r="G39" t="n">
-        <v>0.030775974424678</v>
+        <v>0.03187031673264667</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1379186354.255368</v>
+        <v>1749451036.531722</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1371386396811358</v>
+        <v>0.1013929535572896</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04859383413303522</v>
+        <v>0.04887711651240326</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2204747076.820287</v>
+        <v>2244894986.728074</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1146156489379625</v>
+        <v>0.1246586064601109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03799076988612596</v>
+        <v>0.03973237542673292</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3465773359.615262</v>
+        <v>3495522125.271505</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09715406047961161</v>
+        <v>0.09823073223316907</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03378491645552346</v>
+        <v>0.04436977184014169</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3060788977.415433</v>
+        <v>2096103548.854881</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1383472025881703</v>
+        <v>0.2044701750727262</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01965216871551231</v>
+        <v>0.0234334206482817</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1569151983.097311</v>
+        <v>1500469509.636334</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09393818650741287</v>
+        <v>0.09466608900336694</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03536113189932159</v>
+        <v>0.02583068736260188</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2053414783.938332</v>
+        <v>1539386317.010301</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1413417975764744</v>
+        <v>0.1926881359143818</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04355811788468109</v>
+        <v>0.04572860368830541</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4944546633.073167</v>
+        <v>5629840262.641768</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1356290895033621</v>
+        <v>0.1194905837055313</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04826984206084691</v>
+        <v>0.03840520298949959</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4853395113.374757</v>
+        <v>4405182193.188035</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1467148642462238</v>
+        <v>0.1653591920296379</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05863209902565301</v>
+        <v>0.04119512891948342</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3216652184.946429</v>
+        <v>3916880132.880897</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1102360258245095</v>
+        <v>0.09542110110739556</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02844526995184429</v>
+        <v>0.0268379635644365</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1425282124.659691</v>
+        <v>1437163252.916753</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1414620404988553</v>
+        <v>0.1890877463065944</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02907856051007028</v>
+        <v>0.04049428233765684</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2703800847.463511</v>
+        <v>3530023773.644411</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1752882036243626</v>
+        <v>0.1664142665491644</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05127829278921053</v>
+        <v>0.04570348846948073</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1176756612.511341</v>
+        <v>1510851064.980219</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1220695183050637</v>
+        <v>0.1286045441615431</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04745849706653565</v>
+        <v>0.0445639451409385</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3990530480.025509</v>
+        <v>4931779153.346245</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1061497413071409</v>
+        <v>0.1089832642815386</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04113139849041204</v>
+        <v>0.06019765229802979</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3786110012.038614</v>
+        <v>2723822771.165892</v>
       </c>
       <c r="F53" t="n">
-        <v>0.196191621686429</v>
+        <v>0.1768062283416371</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03308105590278265</v>
+        <v>0.02754527495160889</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3815676910.970337</v>
+        <v>4913376481.376852</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1174477695987272</v>
+        <v>0.1543509704592614</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03269213907790338</v>
+        <v>0.0482472187892986</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4771900820.261485</v>
+        <v>3889576964.293109</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1439146114770697</v>
+        <v>0.192219250132935</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02447526559930016</v>
+        <v>0.03040729139813277</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1319075927.160367</v>
+        <v>1487375108.862564</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1151636052360899</v>
+        <v>0.1222507443799674</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0422646476105043</v>
+        <v>0.03537636705781864</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4140034460.573483</v>
+        <v>4214362452.446377</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1116580933233782</v>
+        <v>0.1523218924018459</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01774332249434058</v>
+        <v>0.02272762344317715</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1472435367.511015</v>
+        <v>1392308211.112285</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1470672545440092</v>
+        <v>0.1534475462256375</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02489970365664855</v>
+        <v>0.0267509447805484</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3268619807.315759</v>
+        <v>4308670215.010192</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1163011457034214</v>
+        <v>0.08599207268443899</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04319423684778671</v>
+        <v>0.03928589079595425</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2707015372.932137</v>
+        <v>3207963415.832545</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1680399835386558</v>
+        <v>0.1379016872848874</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02592852670731115</v>
+        <v>0.02483084702016194</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3189217838.732827</v>
+        <v>2575537151.672882</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1369262662216057</v>
+        <v>0.1760505460119899</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02944976009623377</v>
+        <v>0.03161623730657156</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1709396579.50843</v>
+        <v>1535494273.423087</v>
       </c>
       <c r="F62" t="n">
-        <v>0.138948944460405</v>
+        <v>0.1194911332421908</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04434197517248382</v>
+        <v>0.03971238037300308</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5141342754.064929</v>
+        <v>3724932160.369201</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07658828448130701</v>
+        <v>0.06481293878160269</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0402512809979523</v>
+        <v>0.03573249515757318</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3416687952.557618</v>
+        <v>5350429333.134235</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1272996874712102</v>
+        <v>0.1170634282562344</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02857119522287908</v>
+        <v>0.02172280692956554</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4023276156.986045</v>
+        <v>5969403274.478297</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1431192768317295</v>
+        <v>0.1479364367229913</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0267969634066389</v>
+        <v>0.02158624309414968</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3488816775.248417</v>
+        <v>5445810888.087763</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1169456963150326</v>
+        <v>0.1536601746756752</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03533557463740065</v>
+        <v>0.04903575606036284</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2670837116.248489</v>
+        <v>3175020078.559112</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08458587379623045</v>
+        <v>0.09608799040052851</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03266309471349508</v>
+        <v>0.04406040364120067</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4916503139.720951</v>
+        <v>5798182014.202341</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1366854095668233</v>
+        <v>0.1247897313252399</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05036445193210704</v>
+        <v>0.05044603656749014</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2436070513.634372</v>
+        <v>2489624057.381098</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1547063014099228</v>
+        <v>0.1402376885198625</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04360302035732229</v>
+        <v>0.04403090047977386</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2341035053.067087</v>
+        <v>3691648650.376589</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08678416644240555</v>
+        <v>0.084300318815338</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04102791450473849</v>
+        <v>0.04254104031837041</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5152348875.661737</v>
+        <v>4427073792.258518</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1476796719459447</v>
+        <v>0.13108530819632</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02180479749085832</v>
+        <v>0.02297737238554969</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1676359630.868308</v>
+        <v>2202962778.153881</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06621494664527322</v>
+        <v>0.1066965564880042</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04982978170353634</v>
+        <v>0.0472803047192902</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2767951510.538187</v>
+        <v>2536509950.300049</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1061398837578766</v>
+        <v>0.07098706150192623</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03872675441447078</v>
+        <v>0.03401711238305834</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3102743908.663141</v>
+        <v>3838961222.402672</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1601627920162504</v>
+        <v>0.1614136754456337</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02957647438629135</v>
+        <v>0.02663961688620597</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2140529986.239925</v>
+        <v>2385644765.949883</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1148935563457186</v>
+        <v>0.1260699441447616</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02386176154786734</v>
+        <v>0.03683849044372196</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5064531366.342826</v>
+        <v>5318467499.176051</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08138720213407459</v>
+        <v>0.09836392132994919</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03225444720892303</v>
+        <v>0.02505677738551561</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1776938199.320047</v>
+        <v>1562141031.022587</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1615423853943018</v>
+        <v>0.167550649749598</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03137033839628742</v>
+        <v>0.02100562709160378</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3773968590.209826</v>
+        <v>3987104311.141829</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1036911554993865</v>
+        <v>0.1253088020201573</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03446779038673074</v>
+        <v>0.04612862405684739</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1626223354.889917</v>
+        <v>1508813194.999425</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1153180759096678</v>
+        <v>0.1679301518209257</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02720301112934663</v>
+        <v>0.03702538994425329</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3412225179.607846</v>
+        <v>4655394172.779899</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1016253073783615</v>
+        <v>0.08067266189832259</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0238121931439536</v>
+        <v>0.03047105339281304</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3956885606.517514</v>
+        <v>4003992492.971361</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1101403962781231</v>
+        <v>0.1251073244871501</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02648808428414433</v>
+        <v>0.0286068024972533</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5024708642.522685</v>
+        <v>3441118226.233269</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1560362943763609</v>
+        <v>0.1834360397791242</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0177812619268867</v>
+        <v>0.02480859748387155</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2199668098.416742</v>
+        <v>1818185283.303173</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1368022816095837</v>
+        <v>0.1275931667295064</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03230716890128912</v>
+        <v>0.04515746721233459</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1927644569.059079</v>
+        <v>2287564337.338773</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1108979586132785</v>
+        <v>0.1147599289383968</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03224534575267057</v>
+        <v>0.04276880776870191</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2992095918.994032</v>
+        <v>2863065393.672835</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1402468060714144</v>
+        <v>0.1304218739673575</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04601552280988153</v>
+        <v>0.05207350674711886</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1757068578.980258</v>
+        <v>2771530679.682981</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620729330682477</v>
+        <v>0.1422055089453432</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02338755877695793</v>
+        <v>0.01784090641720667</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1187586281.930869</v>
+        <v>1016505406.252968</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1684262384110556</v>
+        <v>0.1745823977950593</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04348024421867255</v>
+        <v>0.0410333982777674</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3356639187.819158</v>
+        <v>3574238265.778325</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1088814320322905</v>
+        <v>0.1645700723689666</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03082540316842316</v>
+        <v>0.03183421203528716</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2185338176.232666</v>
+        <v>2700901168.479069</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1532560345287746</v>
+        <v>0.1172043844482734</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02525405694547664</v>
+        <v>0.03739732058000327</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1736795688.124887</v>
+        <v>1344505693.647725</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1367735455704334</v>
+        <v>0.08925351218579247</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03867358213704346</v>
+        <v>0.04720378419901346</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1545283178.630362</v>
+        <v>1962522688.49178</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1891854604275108</v>
+        <v>0.1403631253060951</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05675469652726322</v>
+        <v>0.05910752311409309</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2761741409.859664</v>
+        <v>2605125663.053486</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0837899006987438</v>
+        <v>0.07207154861950488</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03404733584106811</v>
+        <v>0.0303657339506884</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4956354718.039204</v>
+        <v>4224570581.393553</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1318421794739431</v>
+        <v>0.09427490631831759</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03947776126311091</v>
+        <v>0.05147240613912513</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2047363768.868045</v>
+        <v>1997666887.663176</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1424194957373728</v>
+        <v>0.1561979691283535</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03651831777285723</v>
+        <v>0.03091871352225432</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3284806091.172167</v>
+        <v>2050703606.488524</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09844914604344872</v>
+        <v>0.1022608509571355</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03592656234846772</v>
+        <v>0.03642470761655221</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1711539854.660466</v>
+        <v>1609852784.102298</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09822419290457642</v>
+        <v>0.1180886373899574</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04587142574143374</v>
+        <v>0.03568872450425212</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5282164467.734787</v>
+        <v>5065214629.480043</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631300836488142</v>
+        <v>0.1643387869574562</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01782811274072205</v>
+        <v>0.02918274111797687</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2683348543.717674</v>
+        <v>3846524859.707968</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07877899957059921</v>
+        <v>0.08434961593884201</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02261467427474397</v>
+        <v>0.02921652926783773</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3411468889.080755</v>
+        <v>2156748469.766096</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1256527417384742</v>
+        <v>0.1401689798166736</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02850090351322189</v>
+        <v>0.02930608290269485</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3982759767.919333</v>
+        <v>4134420774.628982</v>
       </c>
       <c r="F100" t="n">
-        <v>0.132376357303983</v>
+        <v>0.1247832245458652</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0205976276470569</v>
+        <v>0.02440677008286367</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3442841080.732922</v>
+        <v>2347359549.224123</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1718202009323647</v>
+        <v>0.1768792912832749</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03701422332782783</v>
+        <v>0.05728376084531104</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_158.xlsx
+++ b/output/fit_clients/fit_round_158.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2298656816.827908</v>
+        <v>2417207429.916106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09653641430739213</v>
+        <v>0.07946891764283427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04412639133895625</v>
+        <v>0.02770037715878116</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1598821885.844409</v>
+        <v>1863283203.843928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1135905083246338</v>
+        <v>0.1306509586478593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03151279610037665</v>
+        <v>0.0387290004088169</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3812612267.281512</v>
+        <v>4664769303.481011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1523553291007481</v>
+        <v>0.1324743863899547</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02649277199078308</v>
+        <v>0.02803784555744157</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>89</v>
+      </c>
+      <c r="J4" t="n">
+        <v>157</v>
+      </c>
+      <c r="K4" t="n">
+        <v>134.1205634692702</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3612344087.389203</v>
+        <v>4075719693.674045</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07816449724701011</v>
+        <v>0.0861114811550908</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03911852373341709</v>
+        <v>0.03571191427406614</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>158</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2767160938.454202</v>
+        <v>1920411324.154464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1390288868192943</v>
+        <v>0.1330610825971351</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04912787336014897</v>
+        <v>0.04347296774409717</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2421572188.000393</v>
+        <v>2441681779.389108</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0621608028004112</v>
+        <v>0.09982590938509464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03222632247313419</v>
+        <v>0.03694582464258746</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2571824125.332998</v>
+        <v>3205387146.710311</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2061355725417321</v>
+        <v>0.2062771923558505</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02932004134121058</v>
+        <v>0.03213199055672143</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>154</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1827056404.738086</v>
+        <v>1937239550.370846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1985190035732544</v>
+        <v>0.1780084204231888</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02513891099078665</v>
+        <v>0.03226580007210065</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5217320131.903244</v>
+        <v>5591239321.117523</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1818275031077554</v>
+        <v>0.1605853991446994</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03336543658201023</v>
+        <v>0.0504250316553107</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>145</v>
+      </c>
+      <c r="J10" t="n">
+        <v>158</v>
+      </c>
+      <c r="K10" t="n">
+        <v>148.2411846310451</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4215998003.936821</v>
+        <v>2665203578.007633</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1402684246734962</v>
+        <v>0.1557243284220156</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04559788238209495</v>
+        <v>0.03748541491422624</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2497428249.053904</v>
+        <v>2569837558.805033</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1614282668209489</v>
+        <v>0.1742742950782611</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03473093705581939</v>
+        <v>0.04246965337923662</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3776858458.198672</v>
+        <v>5209735072.126891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09817814638939749</v>
+        <v>0.08300673510707801</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02042247400014871</v>
+        <v>0.02800270694202107</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>77</v>
+      </c>
+      <c r="J13" t="n">
+        <v>157</v>
+      </c>
+      <c r="K13" t="n">
+        <v>133.9375117070616</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2371287817.85997</v>
+        <v>3126885743.491257</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1516775397194672</v>
+        <v>0.1530046556585191</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02799717741282041</v>
+        <v>0.04432989878106201</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1516008353.125428</v>
+        <v>1709327738.830693</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09918318681987247</v>
+        <v>0.0866806339843631</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04679020003327266</v>
+        <v>0.03538546931040197</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2627885700.876002</v>
+        <v>2247755175.092852</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1040341603533743</v>
+        <v>0.104410841842638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04150532824552448</v>
+        <v>0.04488063598745735</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4052735072.938888</v>
+        <v>4329804647.455738</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1714201150171702</v>
+        <v>0.1212266089494806</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05147513240586954</v>
+        <v>0.05157502236444332</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>76</v>
+      </c>
+      <c r="J17" t="n">
+        <v>158</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3149433471.798368</v>
+        <v>3653888365.183819</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1228602614843771</v>
+        <v>0.1455933946660345</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02739119968070786</v>
+        <v>0.03274433744781417</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="n">
+        <v>157</v>
+      </c>
+      <c r="K18" t="n">
+        <v>116.6166103058059</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1104021711.595032</v>
+        <v>1263587553.29267</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1607835734308796</v>
+        <v>0.1725870557878826</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02207628994260775</v>
+        <v>0.02445361778456262</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1702695436.144767</v>
+        <v>1947730279.809215</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1395502968748676</v>
+        <v>0.1535211793234073</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02137539123187185</v>
+        <v>0.03013795085649364</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2486882140.62277</v>
+        <v>2552767804.497932</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08457133179001117</v>
+        <v>0.08285884909728516</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03781728757015614</v>
+        <v>0.04540894974473237</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3340575357.142159</v>
+        <v>3177676143.054881</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1308790932603364</v>
+        <v>0.1047429271580892</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04837475907959172</v>
+        <v>0.0352597254017867</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>40</v>
+      </c>
+      <c r="J22" t="n">
+        <v>156</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1389919484.177797</v>
+        <v>1247268722.245589</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1471196465030533</v>
+        <v>0.184447148135724</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03681112577624837</v>
+        <v>0.03886084712102111</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2644012717.943993</v>
+        <v>3065025575.911597</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1124385661931561</v>
+        <v>0.1413952593713848</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03383131361348085</v>
+        <v>0.02646567617032405</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>47</v>
+      </c>
+      <c r="J24" t="n">
+        <v>157</v>
+      </c>
+      <c r="K24" t="n">
+        <v>76.23550311402086</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1366692458.84607</v>
+        <v>1352549490.892168</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1138272818530187</v>
+        <v>0.1121527765691789</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0198614741857391</v>
+        <v>0.01894875794119855</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088219240.173643</v>
+        <v>1295023907.82949</v>
       </c>
       <c r="F26" t="n">
-        <v>0.106980011629821</v>
+        <v>0.1069440775823066</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03083968429322105</v>
+        <v>0.03892485175483296</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4110223885.433753</v>
+        <v>2883095935.424632</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1037705023641957</v>
+        <v>0.101582250974675</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01665808980190058</v>
+        <v>0.01911088186824588</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>62</v>
+      </c>
+      <c r="J27" t="n">
+        <v>155</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3546684032.775311</v>
+        <v>3186345988.088231</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1211677732951841</v>
+        <v>0.1369116096896526</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03284764948628936</v>
+        <v>0.04563469583896673</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4760091968.493806</v>
+        <v>5581544461.886625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1358100304678995</v>
+        <v>0.1216463766321221</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03849955544548358</v>
+        <v>0.04055885561358082</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>147</v>
+      </c>
+      <c r="J29" t="n">
+        <v>158</v>
+      </c>
+      <c r="K29" t="n">
+        <v>158.8209987943214</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2400718533.988531</v>
+        <v>1578777698.269718</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1401723201867301</v>
+        <v>0.1183995468036611</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03598514143653284</v>
+        <v>0.03577138416102933</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1067059158.24345</v>
+        <v>923380506.2868944</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1039902897929808</v>
+        <v>0.08112553907496593</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0525453165302238</v>
+        <v>0.0434105395419053</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1172892698.150121</v>
+        <v>1604134668.836564</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1170545710693342</v>
+        <v>0.08791291346602803</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0326720391318558</v>
+        <v>0.02559775115711327</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2794572360.953134</v>
+        <v>2605108381.129096</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1419976784910709</v>
+        <v>0.1336714340101475</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03756890067097484</v>
+        <v>0.04417196549592925</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1331984277.244542</v>
+        <v>1503814900.420691</v>
       </c>
       <c r="F34" t="n">
-        <v>0.107210645125151</v>
+        <v>0.1090416200095012</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01878324965924548</v>
+        <v>0.01877774198827654</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1133875382.554976</v>
+        <v>1313091987.225589</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08817201173261995</v>
+        <v>0.1137478001449665</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03400841728614123</v>
+        <v>0.03335390595246013</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2351038887.809023</v>
+        <v>2523272743.162292</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1703853142458916</v>
+        <v>0.1616535333919274</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02718992251242591</v>
+        <v>0.01989901237614327</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2269970590.058894</v>
+        <v>1799745097.409745</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09380196461926321</v>
+        <v>0.0966603374934742</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03845216608119513</v>
+        <v>0.03060822330503525</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1824473042.630548</v>
+        <v>2152681989.870058</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1001097897693914</v>
+        <v>0.09896147085971851</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02791794926489447</v>
+        <v>0.03758476566805717</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1993442497.990912</v>
+        <v>1641119894.059943</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1759996714024869</v>
+        <v>0.1797463100018222</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03187031673264667</v>
+        <v>0.02880138681115128</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1749451036.531722</v>
+        <v>1622777808.468452</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1013929535572896</v>
+        <v>0.1026711635736746</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04887711651240326</v>
+        <v>0.03768818362656143</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2244894986.728074</v>
+        <v>2804648718.186603</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1246586064601109</v>
+        <v>0.1328268151368708</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03973237542673292</v>
+        <v>0.04407179722855065</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3495522125.271505</v>
+        <v>3976363174.170448</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09823073223316907</v>
+        <v>0.08930323801423014</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04436977184014169</v>
+        <v>0.04101823129578176</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>58</v>
+      </c>
+      <c r="J42" t="n">
+        <v>158</v>
+      </c>
+      <c r="K42" t="n">
+        <v>138.6729532576348</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2096103548.854881</v>
+        <v>2572600278.843227</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2044701750727262</v>
+        <v>0.1960425863046541</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0234334206482817</v>
+        <v>0.02529795867148468</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1500469509.636334</v>
+        <v>1649675629.638473</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09466608900336694</v>
+        <v>0.06813244148336836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02583068736260188</v>
+        <v>0.02313417106854767</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1539386317.010301</v>
+        <v>2480280824.601407</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1926881359143818</v>
+        <v>0.1691020334006526</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04572860368830541</v>
+        <v>0.05575042327453636</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5629840262.641768</v>
+        <v>4777768849.487144</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1194905837055313</v>
+        <v>0.1181244531072302</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03840520298949959</v>
+        <v>0.04956839220317771</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>89</v>
+      </c>
+      <c r="J46" t="n">
+        <v>158</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4405182193.188035</v>
+        <v>4714376570.093558</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1653591920296379</v>
+        <v>0.1270375226424927</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04119512891948342</v>
+        <v>0.04528636430712722</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>70</v>
+      </c>
+      <c r="J47" t="n">
+        <v>157</v>
+      </c>
+      <c r="K47" t="n">
+        <v>112.5160585097015</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3916880132.880897</v>
+        <v>3052030107.181055</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09542110110739556</v>
+        <v>0.06944014507797371</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0268379635644365</v>
+        <v>0.02826295607993646</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>71</v>
+      </c>
+      <c r="J48" t="n">
+        <v>157</v>
+      </c>
+      <c r="K48" t="n">
+        <v>84.37046136190382</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1437163252.916753</v>
+        <v>1724367407.293466</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1890877463065944</v>
+        <v>0.1439385360956178</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04049428233765684</v>
+        <v>0.04195368610956968</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3530023773.644411</v>
+        <v>2831259674.007592</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1664142665491644</v>
+        <v>0.1150367901663586</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04570348846948073</v>
+        <v>0.04819112085470263</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>155</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1510851064.980219</v>
+        <v>1369981516.743704</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1286045441615431</v>
+        <v>0.1795168515782001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0445639451409385</v>
+        <v>0.03559131099305957</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4931779153.346245</v>
+        <v>4950854423.594067</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1089832642815386</v>
+        <v>0.1317260191268115</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06019765229802979</v>
+        <v>0.0551855058090728</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>115</v>
+      </c>
+      <c r="J52" t="n">
+        <v>157</v>
+      </c>
+      <c r="K52" t="n">
+        <v>135.9773516411103</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2723822771.165892</v>
+        <v>3007037484.897362</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1768062283416371</v>
+        <v>0.1633220574488641</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02754527495160889</v>
+        <v>0.03359588956577432</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4913376481.376852</v>
+        <v>3332620599.367981</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1543509704592614</v>
+        <v>0.1635806729609525</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0482472187892986</v>
+        <v>0.03293297090075519</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>76</v>
+      </c>
+      <c r="J54" t="n">
+        <v>158</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3889576964.293109</v>
+        <v>3146001212.833121</v>
       </c>
       <c r="F55" t="n">
-        <v>0.192219250132935</v>
+        <v>0.2076132880727172</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03040729139813277</v>
+        <v>0.0248601673878117</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>72</v>
+      </c>
+      <c r="J55" t="n">
+        <v>156</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1487375108.862564</v>
+        <v>1267315032.661542</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1222507443799674</v>
+        <v>0.1540243810599473</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03537636705781864</v>
+        <v>0.04452440147904384</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4214362452.446377</v>
+        <v>3313329806.091215</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1523218924018459</v>
+        <v>0.1499547747572872</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02272762344317715</v>
+        <v>0.02064612075120579</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>64</v>
+      </c>
+      <c r="J57" t="n">
+        <v>158</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1392308211.112285</v>
+        <v>1453592795.202368</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1534475462256375</v>
+        <v>0.1767111597361611</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0267509447805484</v>
+        <v>0.03245571451057137</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4308670215.010192</v>
+        <v>4115563733.248029</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08599207268443899</v>
+        <v>0.08447238875068439</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03928589079595425</v>
+        <v>0.04812438948373177</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>76</v>
+      </c>
+      <c r="J59" t="n">
+        <v>158</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3207963415.832545</v>
+        <v>2815066772.003299</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1379016872848874</v>
+        <v>0.1685137145981535</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02483084702016194</v>
+        <v>0.02146221781509429</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2575537151.672882</v>
+        <v>3344021333.968189</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1760505460119899</v>
+        <v>0.1362549718103814</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03161623730657156</v>
+        <v>0.03010882714029942</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1535494273.423087</v>
+        <v>1599401230.328433</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1194911332421908</v>
+        <v>0.1395853105911246</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03971238037300308</v>
+        <v>0.0386794982301626</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3724932160.369201</v>
+        <v>3764790577.632372</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06481293878160269</v>
+        <v>0.0997320006533822</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03573249515757318</v>
+        <v>0.0362295907055549</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>77</v>
+      </c>
+      <c r="J63" t="n">
+        <v>158</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5350429333.134235</v>
+        <v>4539679126.952676</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1170634282562344</v>
+        <v>0.1618617755310116</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02172280692956554</v>
+        <v>0.02890842172584197</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>78</v>
+      </c>
+      <c r="J64" t="n">
+        <v>158</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5969403274.478297</v>
+        <v>4745920393.714526</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1479364367229913</v>
+        <v>0.1417117668364902</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02158624309414968</v>
+        <v>0.0195556801815994</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>130</v>
+      </c>
+      <c r="J65" t="n">
+        <v>158</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.4716793441057</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5445810888.087763</v>
+        <v>4806188616.527139</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1536601746756752</v>
+        <v>0.1373524731363338</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04903575606036284</v>
+        <v>0.0460192155552193</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>78</v>
+      </c>
+      <c r="J66" t="n">
+        <v>157</v>
+      </c>
+      <c r="K66" t="n">
+        <v>125.1695398255188</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2794,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3175020078.559112</v>
+        <v>3480078669.113176</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09608799040052851</v>
+        <v>0.07778778140894572</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04406040364120067</v>
+        <v>0.03360887840565046</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="n">
+        <v>110.9795470752306</v>
       </c>
     </row>
     <row r="68">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5798182014.202341</v>
+        <v>4082044009.060095</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1247897313252399</v>
+        <v>0.09815276167274198</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05044603656749014</v>
+        <v>0.04986728492461311</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>79</v>
+      </c>
+      <c r="J68" t="n">
+        <v>158</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2489624057.381098</v>
+        <v>1622999644.041098</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1402376885198625</v>
+        <v>0.1517695466779698</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04403090047977386</v>
+        <v>0.04408168259629883</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3691648650.376589</v>
+        <v>3658507746.447701</v>
       </c>
       <c r="F70" t="n">
-        <v>0.084300318815338</v>
+        <v>0.07255679852509256</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04254104031837041</v>
+        <v>0.04512265290132553</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>158</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4427073792.258518</v>
+        <v>3888031150.25206</v>
       </c>
       <c r="F71" t="n">
-        <v>0.13108530819632</v>
+        <v>0.1704656341808638</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02297737238554969</v>
+        <v>0.03019498584860088</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>124</v>
+      </c>
+      <c r="J71" t="n">
+        <v>157</v>
+      </c>
+      <c r="K71" t="n">
+        <v>137.4557456334819</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2202962778.153881</v>
+        <v>2223260362.590284</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1066965564880042</v>
+        <v>0.08040091044454709</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0472803047192902</v>
+        <v>0.04683332710149601</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2536509950.300049</v>
+        <v>2815264323.81305</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07098706150192623</v>
+        <v>0.1098383783013635</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03401711238305834</v>
+        <v>0.04076239773932031</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3838961222.402672</v>
+        <v>3773149619.582052</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1614136754456337</v>
+        <v>0.1730493671114448</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02663961688620597</v>
+        <v>0.02846327379418512</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>48</v>
+      </c>
+      <c r="J74" t="n">
+        <v>157</v>
+      </c>
+      <c r="K74" t="n">
+        <v>129.605562567444</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2385644765.949883</v>
+        <v>1587919436.315379</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1260699441447616</v>
+        <v>0.1589606531334503</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03683849044372196</v>
+        <v>0.036784049423866</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5318467499.176051</v>
+        <v>4543803998.634266</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09836392132994919</v>
+        <v>0.09435082421664617</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02505677738551561</v>
+        <v>0.02078916504405233</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>72</v>
+      </c>
+      <c r="J76" t="n">
+        <v>158</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1562141031.022587</v>
+        <v>1622942901.370732</v>
       </c>
       <c r="F77" t="n">
-        <v>0.167550649749598</v>
+        <v>0.1624487287117383</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02100562709160378</v>
+        <v>0.02369878158154687</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3987104311.141829</v>
+        <v>4101616708.825811</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1253088020201573</v>
+        <v>0.09971947400372178</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04612862405684739</v>
+        <v>0.05082827684184985</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>79</v>
+      </c>
+      <c r="J78" t="n">
+        <v>158</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1508813194.999425</v>
+        <v>1266483408.756869</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1679301518209257</v>
+        <v>0.1669508002313324</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03702538994425329</v>
+        <v>0.02742677377799296</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4655394172.779899</v>
+        <v>3541044432.958772</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08067266189832259</v>
+        <v>0.09708341228941068</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03047105339281304</v>
+        <v>0.03529898194799456</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>77</v>
+      </c>
+      <c r="J80" t="n">
+        <v>157</v>
+      </c>
+      <c r="K80" t="n">
+        <v>83.04880181034819</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4003992492.971361</v>
+        <v>4445438580.389292</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1251073244871501</v>
+        <v>0.1059105105577464</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0286068024972533</v>
+        <v>0.02291856457106548</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>72</v>
+      </c>
+      <c r="J81" t="n">
+        <v>158</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3441118226.233269</v>
+        <v>4437588553.733673</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1834360397791242</v>
+        <v>0.1859457581890574</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02480859748387155</v>
+        <v>0.02474711439674421</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>115</v>
+      </c>
+      <c r="J82" t="n">
+        <v>158</v>
+      </c>
+      <c r="K82" t="n">
+        <v>145.2666378993636</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1818185283.303173</v>
+        <v>2282919678.119188</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1275931667295064</v>
+        <v>0.1259439550901958</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04515746721233459</v>
+        <v>0.03387152290401231</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2287564337.338773</v>
+        <v>1888209818.178027</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1147599289383968</v>
+        <v>0.1114632736038037</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04276880776870191</v>
+        <v>0.04248140709704205</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2863065393.672835</v>
+        <v>2860039779.373671</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1304218739673575</v>
+        <v>0.1169835045458688</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05207350674711886</v>
+        <v>0.03598550330833456</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2771530679.682981</v>
+        <v>2741767646.141609</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1422055089453432</v>
+        <v>0.1635169544638439</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01784090641720667</v>
+        <v>0.01711184812161926</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1016505406.252968</v>
+        <v>1500708088.230261</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1745823977950593</v>
+        <v>0.1189395671243306</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0410333982777674</v>
+        <v>0.03487101128890949</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3574238265.778325</v>
+        <v>3390066782.832963</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1645700723689666</v>
+        <v>0.1461548780005734</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03183421203528716</v>
+        <v>0.03876794525534821</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="n">
+        <v>109.0166100507549</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2700901168.479069</v>
+        <v>2397123758.977512</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1172043844482734</v>
+        <v>0.1090640672507451</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03739732058000327</v>
+        <v>0.0273171950953272</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1344505693.647725</v>
+        <v>1728691211.25731</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08925351218579247</v>
+        <v>0.09129916260473907</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04720378419901346</v>
+        <v>0.04810987469998357</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1962522688.49178</v>
+        <v>2016150086.435428</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1403631253060951</v>
+        <v>0.1625004484362206</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05910752311409309</v>
+        <v>0.06064801351215105</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2605125663.053486</v>
+        <v>2732313877.70091</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07207154861950488</v>
+        <v>0.1055090771519504</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0303657339506884</v>
+        <v>0.03572768110137468</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4224570581.393553</v>
+        <v>3044369259.783589</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09427490631831759</v>
+        <v>0.1164543216294516</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05147240613912513</v>
+        <v>0.04317419355069674</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>71</v>
+      </c>
+      <c r="J93" t="n">
+        <v>156</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1997666887.663176</v>
+        <v>1590068216.575073</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1561979691283535</v>
+        <v>0.1611411654845616</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03091871352225432</v>
+        <v>0.0299494480989828</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2050703606.488524</v>
+        <v>2439045941.897771</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1022608509571355</v>
+        <v>0.1220185745767881</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03642470761655221</v>
+        <v>0.04127891150146477</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1609852784.102298</v>
+        <v>2408296428.65403</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1180886373899574</v>
+        <v>0.09189802386173722</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03568872450425212</v>
+        <v>0.03511212768041573</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5065214629.480043</v>
+        <v>3350591787.170567</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1643387869574562</v>
+        <v>0.1138363300996597</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02918274111797687</v>
+        <v>0.02566929921986678</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>76</v>
+      </c>
+      <c r="J97" t="n">
+        <v>157</v>
+      </c>
+      <c r="K97" t="n">
+        <v>98.4849745075163</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3846524859.707968</v>
+        <v>3208951011.307097</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08434961593884201</v>
+        <v>0.0939865452567558</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02921652926783773</v>
+        <v>0.02289849541474536</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>37</v>
+      </c>
+      <c r="J98" t="n">
+        <v>155</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2156748469.766096</v>
+        <v>2114782851.802868</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1401689798166736</v>
+        <v>0.1123444308471757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02930608290269485</v>
+        <v>0.02217886952752562</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4134420774.628982</v>
+        <v>3628471522.603979</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1247832245458652</v>
+        <v>0.1473783475410838</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02440677008286367</v>
+        <v>0.0258528934032219</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>66</v>
+      </c>
+      <c r="J100" t="n">
+        <v>157</v>
+      </c>
+      <c r="K100" t="n">
+        <v>110.5964080868024</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2347359549.224123</v>
+        <v>3545115395.06709</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1768792912832749</v>
+        <v>0.1601798516511705</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05728376084531104</v>
+        <v>0.03580536197921694</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>158</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
